--- a/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Андерсон-Дарлинг_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Андерсон-Дарлинг_result.xlsx
@@ -634,7 +634,7 @@
         <v>1.0514</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3313</v>
+        <v>0.3314</v>
       </c>
     </row>
     <row r="15">
